--- a/Python Working Notebooks/Production Tank Model results in Excel format/22MT Excel Results/Deaeration/22 MT results - Deaeration Overall.xlsx
+++ b/Python Working Notebooks/Production Tank Model results in Excel format/22MT Excel Results/Deaeration/22 MT results - Deaeration Overall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Thesis 2023\Capstone---CCT\Python Working Notebooks\Production Tank Model results in Excel format\22MT Excel Results\Deaeration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4937FC-0F3C-4A9A-B990-A4ADA6615BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5618AAFF-C67A-40F2-9782-7336828F49DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -373,9 +373,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -403,16 +400,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,21 +423,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -480,6 +453,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,7 +509,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>84808</xdr:colOff>
+      <xdr:colOff>56233</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>56839</xdr:rowOff>
     </xdr:to>
@@ -1400,14 +1400,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D30BEE9-A987-4EC0-BD42-596E701BB964}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="5" customWidth="1"/>
@@ -1416,24 +1416,24 @@
     <col min="8" max="8" width="9.28515625" style="5" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="5" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="43.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="43" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1445,504 +1445,504 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="42" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="39" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="18">
         <v>2.4905303259648921E-3</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>2.4905299999999999E-3</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="18">
         <v>1.861588816599077E-2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>1.8615900000000001E-2</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="18">
         <v>0.9978123926068132</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>0.99781200000000003</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="18">
         <v>0.94164241531307102</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="19">
         <v>0.94164199999999998</v>
       </c>
-      <c r="K3" s="7"/>
+      <c r="K3" s="44"/>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="18">
         <v>2.532248873053125E-3</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>2.5322500000000002E-3</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="18">
         <v>1.8847719916188971E-2</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>1.8847699999999998E-2</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="18">
         <v>0.99777574828207172</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>0.997776</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="18">
         <v>0.94091566293495854</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>0.94091599999999997</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
     </row>
     <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="18">
         <v>3.3795056414617571E-3</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>3.3795100000000001E-3</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="18">
         <v>1.9447631005131021E-2</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>1.9447599999999999E-2</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="18">
         <v>0.99703154326229138</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>0.99703200000000003</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="18">
         <v>0.93903504558995743</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>0.93903499999999995</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-    </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+    </row>
+    <row r="6" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="18">
         <v>4.8846828419132149E-3</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>3.3795100000000001E-3</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="18">
         <v>3.8112067872847717E-2</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>3.8112100000000003E-2</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="18">
         <v>0.9957094406010889</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>0.99570899999999996</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="18">
         <v>0.88052526913290452</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>0.880525</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-    </row>
-    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+    </row>
+    <row r="7" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="18">
         <v>3.1222080396285099E-6</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>3.1222099999999998E-6</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="18">
         <v>2.7017534372733892E-2</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>2.70175E-2</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="18">
         <v>0.99999725754578483</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>0.99999700000000002</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="18">
         <v>0.91530470981936529</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>0.91530500000000004</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
     </row>
     <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="18">
         <v>0</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="20">
         <v>0</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="18">
         <v>5.7318290716122731E-2</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="20">
         <v>5.7318300000000003E-2</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="18">
         <v>1</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="20">
         <v>1</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="18">
         <v>0.82031708749265997</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>0.82031699999999996</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-    </row>
-    <row r="9" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+    </row>
+    <row r="9" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="18">
         <v>4.3952469603511157E-3</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>4.3952499999999999E-3</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="18">
         <v>3.5716150833269122E-2</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>3.5716199999999997E-2</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="18">
         <v>0.99613934644958779</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>0.996139</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="18">
         <v>0.88803605402231423</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>0.88803600000000005</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-    </row>
-    <row r="10" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+    </row>
+    <row r="10" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>90.314999999999998</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>0</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>39.466700000000003</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>50.087499999999999</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>0.86626300000000001</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>1</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>0.79142699999999999</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>0.73529800000000001</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="13" t="s">
         <v>40</v>
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>819.16200000000003</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>0.82061300000000004</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>200.553</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>11.589499999999999</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>-0.213002</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>0.99878500000000003</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <v>-5.9879000000000002E-2</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>0.93875200000000003</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="14" t="s">
         <v>41</v>
       </c>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>274.75799999999998</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>3.6469999999999998</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>109.755</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>15.9872</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>0.59314299999999998</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>0.99460000000000004</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <v>0.41996899999999998</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>0.91551099999999996</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="14" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>1024.77</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>869.74</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>320.60399999999998</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>220.06</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>-0.51746700000000001</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <v>-0.69432499999999997</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <v>-0.16</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="14" t="s">
         <v>43</v>
       </c>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>1292.83</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>1207.259</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>424.12900000000002</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>397.49</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>-0.91440500000000002</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>-0.78700000000000003</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <v>-1.24143</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="J15" s="8"/>
+      <c r="J15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1980,19 +1980,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2004,25 +2004,25 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -2030,105 +2030,105 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="18">
         <v>2.4905303259648921E-3</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>2.4905299999999999E-3</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="18">
         <v>1.861588816599077E-2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>1.8615900000000001E-2</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="18">
         <v>0.9978123926068132</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>0.99781200000000003</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="18">
         <v>0.94164241531307102</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="19">
         <v>0.94164199999999998</v>
       </c>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="18">
         <v>3.1222080396285099E-6</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>3.1222099999999998E-6</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="18">
         <v>2.7017534372733892E-2</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>2.70175E-2</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="18">
         <v>0.99999725754578483</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>0.99999700000000002</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="18">
         <v>0.91530470981936529</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>0.91530500000000004</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="18">
         <v>4.3952469603511157E-3</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>4.3952499999999999E-3</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="18">
         <v>3.5716150833269122E-2</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>3.5716199999999997E-2</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="18">
         <v>0.99613934644958779</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>0.996139</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="18">
         <v>0.88803605402231423</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>0.88803600000000005</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="23" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2148,10 +2148,10 @@
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
+      <c r="A31" s="24"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2189,87 +2189,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="35"/>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="31">
         <v>2.4905303259648921E-3</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="32">
         <v>2.4905299999999999E-3</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="31">
         <v>1.861588816599077E-2</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="32">
         <v>1.8615900000000001E-2</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="31">
         <v>0.9978123926068132</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="32">
         <v>0.99781200000000003</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="31">
         <v>0.94164241531307102</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="33">
         <v>0.94164199999999998</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="34" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2289,10 +2289,10 @@
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
+      <c r="A29" s="24"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE66413B-54BF-48FB-9F45-C3B5D2E6C902}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
@@ -2331,92 +2331,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="35"/>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="31">
         <v>1292.83</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="32">
         <v>1207.259</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="31">
         <v>424.12900000000002</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="32">
         <v>397.49</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="31">
         <v>-0.91440500000000002</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="32">
         <v>-0.78700000000000003</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="31">
         <v>-1.24143</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="32">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J4" s="8"/>
+      <c r="J4" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2451,19 +2451,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -2475,25 +2475,25 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -2501,114 +2501,114 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>819.16200000000003</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>0.82061300000000004</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>200.553</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>11.589499999999999</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>-0.213002</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>0.99878500000000003</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>-5.9879000000000002E-2</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>0.93875200000000003</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>41</v>
       </c>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>1024.77</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>869.74</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>320.60399999999998</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>220.06</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>-0.51746700000000001</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>-0.69432499999999997</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>-0.16</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="14" t="s">
         <v>43</v>
       </c>
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>1292.83</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>1207.259</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>424.12900000000002</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>397.49</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>-0.91440500000000002</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>-0.78700000000000003</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>-1.24143</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J6" s="8"/>
+      <c r="J6" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
